--- a/05.Report/PGDip_model_results_SV.xlsx
+++ b/05.Report/PGDip_model_results_SV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sverm\Documents\GitHub\ds-group-42-pba-3\05.Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/05.Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF3E1E-11D0-403B-BA90-EB50A8D264E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBED57-6FEC-D74A-8855-669A5E824EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="25180" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-NN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="NewResults_Graphs" sheetId="10" r:id="rId7"/>
     <sheet name="NewResults_End)" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -125,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -225,7 +225,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
@@ -233,13 +233,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,7 +271,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,7 +289,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -716,7 +716,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1149,7 +1149,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1582,7 +1582,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2015,7 +2015,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2443,7 +2443,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2876,7 +2876,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3309,7 +3309,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3742,7 +3742,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4170,7 +4170,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4652,7 +4652,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5374,7 +5374,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5807,7 +5807,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5928,6 +5928,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95884773662551437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95884773662551437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95884773662551437</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5985,6 +5994,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87242798353909468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34053497942386829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6042,6 +6060,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91872427983539096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81301440329218111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59207818930041156</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6371,7 +6398,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7094,7 +7121,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7215,6 +7242,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95657603425561455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95657603425561455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95657603425561455</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7272,6 +7308,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86408466511701376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41811298168535582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18460057851255399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7329,6 +7374,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91098518470019685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80451442203369039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59669666205128591</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7658,7 +7712,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7784,7 +7838,7 @@
             <c:numRef>
               <c:f>Graphs!$D$4:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.77</c:v>
@@ -7970,7 +8024,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8091,7 +8145,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8524,7 +8578,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8957,7 +9011,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9390,7 +9444,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9516,7 +9570,7 @@
             <c:numRef>
               <c:f>Graphs!$D$28:$D$31</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.71</c:v>
@@ -9702,7 +9756,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9823,7 +9877,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10256,7 +10310,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23729,16 +23783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24059,13 +24113,13 @@
       <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24085,7 +24139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -24105,7 +24159,7 @@
         <v>0.79250085765419731</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -24125,7 +24179,7 @@
         <v>0.72264749886069268</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -24145,7 +24199,7 @@
         <v>0.59484576263802624</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -24165,7 +24219,7 @@
         <v>0.57673703679745625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -24185,7 +24239,7 @@
         <v>0.14568881689230639</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -24205,7 +24259,7 @@
         <v>0.39160898070338468</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -24225,7 +24279,7 @@
         <v>0.78879480622315157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -24258,16 +24312,16 @@
       <selection activeCell="I12" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24287,7 +24341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -24307,7 +24361,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -24327,7 +24381,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -24347,7 +24401,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -24367,7 +24421,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -24387,7 +24441,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24407,7 +24461,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -24427,7 +24481,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -24460,16 +24514,16 @@
       <selection activeCell="K27" sqref="K27:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24504,7 +24558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -24548,7 +24602,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -24592,7 +24646,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -24636,7 +24690,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -24680,7 +24734,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -24724,7 +24778,7 @@
         <v>0.77177381193877159</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24768,7 +24822,7 @@
         <v>0.72264749886069268</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -24812,7 +24866,7 @@
         <v>0.57673703679745625</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -24856,7 +24910,7 @@
         <v>0.39160898070338468</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -24876,7 +24930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -24911,7 +24965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -24952,7 +25006,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -24990,7 +25044,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -25028,7 +25082,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -25066,7 +25120,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -25086,7 +25140,7 @@
         <v>0.39160898070338468</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -25127,7 +25181,7 @@
         <v>0.78879480622315157</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -25165,7 +25219,7 @@
         <v>0.79250085765419731</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
         <v>9</v>
       </c>
@@ -25185,7 +25239,7 @@
         <v>0.59484576263802624</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>10</v>
       </c>
@@ -25205,7 +25259,7 @@
         <v>0.14568881689230639</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
         <v>17</v>
       </c>
@@ -25213,7 +25267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K28">
         <v>0</v>
       </c>
@@ -25224,7 +25278,7 @@
         <v>0.76998669259903774</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K29">
         <v>0.1</v>
       </c>
@@ -25235,7 +25289,7 @@
         <v>0.70907974204115054</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K30">
         <v>0.4</v>
       </c>
@@ -25246,7 +25300,7 @@
         <v>0.54611526256525744</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K31">
         <v>0.7</v>
       </c>
@@ -25271,23 +25325,23 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
@@ -25300,7 +25354,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
@@ -25318,7 +25372,7 @@
       </c>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -25344,7 +25398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -25373,7 +25427,7 @@
         <v>0.77177381193877159</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -25404,7 +25458,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -25435,7 +25489,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.7</v>
       </c>
@@ -25466,25 +25520,25 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G8" s="3"/>
       <c r="I8" s="5"/>
       <c r="K8" s="5"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G9" s="3"/>
       <c r="I9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K11" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -25497,7 +25551,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>2</v>
       </c>
@@ -25515,7 +25569,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -25541,7 +25595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -25570,7 +25624,7 @@
         <v>0.78879480622315157</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -25599,7 +25653,7 @@
         <v>0.79250085765419731</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.4</v>
       </c>
@@ -25628,7 +25682,7 @@
         <v>0.59484576263802624</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.7</v>
       </c>
@@ -25659,16 +25713,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25683,14 +25737,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -25711,7 +25765,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -25732,7 +25786,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -25753,7 +25807,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -25774,7 +25828,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -25795,7 +25849,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -25816,7 +25870,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -25837,7 +25891,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -25858,7 +25912,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -25892,20 +25946,20 @@
       <selection activeCell="C9" sqref="C9:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25928,7 +25982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -25948,7 +26002,7 @@
         <v>0.78879480622315157</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -25968,7 +26022,7 @@
         <v>0.78560311502942748</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -25988,7 +26042,7 @@
         <v>0.71767430595285797</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -26008,7 +26062,7 @@
         <v>0.661535050357556</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -26028,7 +26082,7 @@
         <v>0.80039686949754418</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -26048,7 +26102,7 @@
         <v>0.77208995728365548</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -26068,7 +26122,7 @@
         <v>0.74705270822564263</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -26101,25 +26155,25 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
@@ -26134,7 +26188,7 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="21" t="s">
@@ -26155,7 +26209,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>23</v>
@@ -26186,7 +26240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -26217,7 +26271,7 @@
         <v>0.78879500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>0.1</v>
       </c>
@@ -26249,7 +26303,7 @@
         <v>0.79250100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>0.4</v>
       </c>
@@ -26281,7 +26335,7 @@
         <v>0.59484599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>0.7</v>
       </c>
@@ -26313,25 +26367,25 @@
         <v>0.14568900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I8" s="3"/>
       <c r="K8" s="5"/>
       <c r="M8" s="5"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I9" s="3"/>
       <c r="K9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M11" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>19</v>
       </c>
@@ -26346,7 +26400,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="21" t="s">
@@ -26367,7 +26421,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -26396,7 +26450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>0</v>
       </c>
@@ -26427,7 +26481,7 @@
         <v>0.800848</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>0.1</v>
       </c>
@@ -26458,7 +26512,7 @@
         <v>0.78365399999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>0.4</v>
       </c>
@@ -26489,7 +26543,7 @@
         <v>0.64047299999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>0.7</v>
       </c>
@@ -26542,30 +26596,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF06522-7AD8-8F4F-B195-C56521A4F0C4}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
@@ -26585,7 +26639,7 @@
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="21" t="s">
@@ -26610,7 +26664,7 @@
       </c>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>23</v>
@@ -26651,7 +26705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>0.1</v>
       </c>
@@ -26695,7 +26749,7 @@
         <v>0.96686284907592202</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>0.4</v>
       </c>
@@ -26739,7 +26793,7 @@
         <v>0.85326667492389097</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>0.7</v>
       </c>
@@ -26783,7 +26837,7 @@
         <v>0.69015193232586103</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -26791,20 +26845,20 @@
       <c r="R7" s="5"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="P8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R10" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>19</v>
       </c>
@@ -26824,7 +26878,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="21" t="s">
@@ -26849,7 +26903,7 @@
       </c>
       <c r="P25" s="21"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
         <v>23</v>
@@ -26890,13 +26944,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>0.1</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27">
+        <v>0.95884773662551437</v>
+      </c>
+      <c r="C27">
+        <v>0.87242798353909468</v>
+      </c>
+      <c r="D27">
+        <v>0.91872427983539096</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -26906,17 +26966,29 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="N27">
+        <v>0.95657603425561455</v>
+      </c>
+      <c r="O27">
+        <v>0.86408466511701376</v>
+      </c>
+      <c r="P27">
+        <v>0.91098518470019685</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>0.4</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28">
+        <v>0.95884773662551437</v>
+      </c>
+      <c r="C28">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D28">
+        <v>0.81301440329218111</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -26926,17 +26998,29 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+      <c r="N28">
+        <v>0.95657603425561455</v>
+      </c>
+      <c r="O28">
+        <v>0.41811298168535582</v>
+      </c>
+      <c r="P28">
+        <v>0.80451442203369039</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>0.7</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29">
+        <v>0.95884773662551437</v>
+      </c>
+      <c r="C29">
+        <v>0.34053497942386829</v>
+      </c>
+      <c r="D29">
+        <v>0.59207818930041156</v>
+      </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -26946,11 +27030,17 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="N29">
+        <v>0.95657603425561455</v>
+      </c>
+      <c r="O29">
+        <v>0.18460057851255399</v>
+      </c>
+      <c r="P29">
+        <v>0.59669666205128591</v>
+      </c>
     </row>
-    <row r="34" spans="15:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15" ht="19" x14ac:dyDescent="0.2">
       <c r="O34" s="18"/>
     </row>
   </sheetData>
